--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66033.44817773026</v>
+        <v>58389.38632370011</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219456</v>
+        <v>33937088.13219458</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>104.8891084058001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796776</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="U8" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>30.70785528783153</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>65.52873313770814</v>
+        <v>43.00733401359857</v>
       </c>
       <c r="H9" t="n">
-        <v>39.3603752680919</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656964</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>119.0839105424607</v>
       </c>
     </row>
     <row r="10">
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>91.32747982963524</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616408</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="T10" t="n">
-        <v>104.8891084058001</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>164.1017117126583</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
     </row>
     <row r="12">
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>74.4281100935485</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>98.23597810413408</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>156.7012890994282</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>361.464905015728</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>161.5629310373562</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>85.46797237261391</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>377.9792592885216</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>156.7012890994281</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>64.22853475716065</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>345.0251112431879</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>84.84259105082089</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>89.1654338797163</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2298,10 +2298,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>109.7979390345399</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2326,13 +2326,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>345.556854062635</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>167.4490654225676</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>49.34995949258575</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>111.4016648880122</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -2608,22 +2608,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>169.0371054365764</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>213.5382021707743</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>214.8156362148745</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>81.94411774374035</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>159.6880037645416</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>204.0461120219733</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2851,16 +2851,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>151.7971737425234</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>54.31661462074911</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3009,7 +3009,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>184.3415781845968</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>213.5382021707748</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258573</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3246,10 +3246,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>1.426178331047986</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>111.6239350792297</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -3322,16 +3322,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>361.464905015728</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>55.96684102370052</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>138.7434236076974</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>214.230991478422</v>
+        <v>73.68710948837989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0178285439537</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>214.5646102646778</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>361.4649050157285</v>
+        <v>165.6407430163102</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>43.55349484583913</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3915,10 +3915,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3957,16 +3957,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>176.9590254883685</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>269.7890134509709</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>155.7114808343867</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.7320934399556</v>
+        <v>43.55349484583913</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>115.4753071926899</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="C8" t="n">
-        <v>115.4753071926899</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="D8" t="n">
-        <v>115.4753071926899</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="E8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585586</v>
+        <v>23.57954741585563</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558061</v>
+        <v>55.41632306558018</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318075</v>
+        <v>103.1313969318068</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183102</v>
+        <v>162.3261653183092</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590941</v>
+        <v>228.1917507590927</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326594</v>
+        <v>295.1231102326575</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336439</v>
+        <v>358.3244950336417</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455687</v>
+        <v>412.2654147455663</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245032</v>
+        <v>452.7727990245004</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698458</v>
+        <v>476.3356421698429</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698458</v>
+        <v>401.4050834648249</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698458</v>
+        <v>281.118305139107</v>
       </c>
       <c r="U8" t="n">
-        <v>356.0488638441271</v>
+        <v>160.831526813389</v>
       </c>
       <c r="V8" t="n">
-        <v>356.0488638441271</v>
+        <v>129.8134911691148</v>
       </c>
       <c r="W8" t="n">
-        <v>235.7620855184085</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="X8" t="n">
-        <v>115.4753071926899</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="Y8" t="n">
-        <v>115.4753071926899</v>
+        <v>9.526712843396858</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.4753071926899</v>
+        <v>176.1102575723772</v>
       </c>
       <c r="C9" t="n">
-        <v>115.4753071926899</v>
+        <v>176.1102575723772</v>
       </c>
       <c r="D9" t="n">
-        <v>115.4753071926899</v>
+        <v>176.1102575723772</v>
       </c>
       <c r="E9" t="n">
-        <v>115.4753071926899</v>
+        <v>176.1102575723772</v>
       </c>
       <c r="F9" t="n">
-        <v>115.4753071926899</v>
+        <v>92.72641918853877</v>
       </c>
       <c r="G9" t="n">
-        <v>49.28466765965136</v>
+        <v>49.28466765965132</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160449</v>
+        <v>16.4367847511468</v>
       </c>
       <c r="J9" t="n">
-        <v>107.4467524448972</v>
+        <v>67.7089975236792</v>
       </c>
       <c r="K9" t="n">
-        <v>139.8554298242132</v>
+        <v>100.1176749029951</v>
       </c>
       <c r="L9" t="n">
-        <v>183.4328960399027</v>
+        <v>143.6951411186844</v>
       </c>
       <c r="M9" t="n">
-        <v>234.2857436973189</v>
+        <v>194.5479887761002</v>
       </c>
       <c r="N9" t="n">
-        <v>352.1788151343557</v>
+        <v>246.746759993637</v>
       </c>
       <c r="O9" t="n">
-        <v>399.9304929406886</v>
+        <v>294.4984377999696</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425509</v>
+        <v>332.8233691018316</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.8746258735262</v>
+        <v>358.4425707328068</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698458</v>
+        <v>476.3356421698429</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698458</v>
+        <v>416.6838142238129</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698458</v>
+        <v>416.6838142238129</v>
       </c>
       <c r="U9" t="n">
-        <v>356.0488638441271</v>
+        <v>416.6838142238129</v>
       </c>
       <c r="V9" t="n">
-        <v>235.7620855184085</v>
+        <v>416.6838142238129</v>
       </c>
       <c r="W9" t="n">
-        <v>115.4753071926899</v>
+        <v>416.6838142238129</v>
       </c>
       <c r="X9" t="n">
-        <v>115.4753071926899</v>
+        <v>296.3970358980951</v>
       </c>
       <c r="Y9" t="n">
-        <v>115.4753071926899</v>
+        <v>176.1102575723772</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396915</v>
+        <v>342.3502491207269</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396915</v>
+        <v>342.3502491207269</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396915</v>
+        <v>342.3502491207269</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396915</v>
+        <v>222.063470795009</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396915</v>
+        <v>222.063470795009</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396915</v>
+        <v>129.8134911691148</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396858</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011151</v>
+        <v>108.0024003011149</v>
       </c>
       <c r="K10" t="n">
-        <v>139.6269791351163</v>
+        <v>225.895471738151</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6426948995737</v>
+        <v>250.9111875026082</v>
       </c>
       <c r="M10" t="n">
-        <v>191.0182597110288</v>
+        <v>277.2867523140632</v>
       </c>
       <c r="N10" t="n">
-        <v>216.7666725435536</v>
+        <v>303.0351651465878</v>
       </c>
       <c r="O10" t="n">
-        <v>240.5494992957721</v>
+        <v>326.8179918988062</v>
       </c>
       <c r="P10" t="n">
-        <v>358.442570732809</v>
+        <v>444.7110633358423</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698458</v>
+        <v>476.3356421698429</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698458</v>
+        <v>462.6370274464448</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698458</v>
+        <v>342.3502491207269</v>
       </c>
       <c r="T10" t="n">
-        <v>370.3870478205528</v>
+        <v>342.3502491207269</v>
       </c>
       <c r="U10" t="n">
-        <v>250.1002694948342</v>
+        <v>342.3502491207269</v>
       </c>
       <c r="V10" t="n">
-        <v>129.8134911691155</v>
+        <v>342.3502491207269</v>
       </c>
       <c r="W10" t="n">
-        <v>9.526712843396915</v>
+        <v>342.3502491207269</v>
       </c>
       <c r="X10" t="n">
-        <v>9.526712843396915</v>
+        <v>342.3502491207269</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396915</v>
+        <v>342.3502491207269</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1514.88554354214</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C11" t="n">
-        <v>1076.743070725563</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D11" t="n">
-        <v>640.8332859000079</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E11" t="n">
-        <v>640.8332859000079</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F11" t="n">
-        <v>212.9658563092157</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
-        <v>212.9658563092157</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.185114027048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y11" t="n">
-        <v>1941.185114027048</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,19 +5126,19 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5162,10 +5162,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.8535040738955</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C13" t="n">
-        <v>344.2917925571204</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D13" t="n">
-        <v>344.2917925571204</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E13" t="n">
-        <v>344.2917925571204</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>464.1452239003837</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>588.0160255186817</v>
+        <v>828.1746199579902</v>
       </c>
       <c r="M13" t="n">
-        <v>718.6204178572111</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1288.378132818745</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2261.09931673649</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.852092639897</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1740.46546068864</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1453.50995255907</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1181.483548145362</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>936.0917934787744</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.6721227928826</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1941.185114027047</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C14" t="n">
-        <v>1503.04264121047</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>1067.132856384915</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
-        <v>633.3581115432098</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>205.4906819524176</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>205.4906819524176</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
         <v>1775.969506973259</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447736</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027047</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y14" t="n">
-        <v>1941.185114027047</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.0817647851411</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C16" t="n">
-        <v>616.0817647851411</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>450.2037719866638</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>450.2037719866638</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>273.49671794842</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909395</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092381</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
         <v>2173.32015736263</v>
@@ -5460,10 +5460,10 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
         <v>2118.080353351143</v>
@@ -5475,13 +5475,13 @@
         <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.32005419002</v>
+        <v>1307.346458603729</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041283</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1782.900983623584</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>2202.043447044273</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W17" t="n">
-        <v>2202.043447044273</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X17" t="n">
-        <v>1782.900983623584</v>
+        <v>1236.792598174392</v>
       </c>
       <c r="Y17" t="n">
-        <v>1782.900983623584</v>
+        <v>828.5064744740449</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,31 +5585,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>807.9003835041283</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C19" t="n">
-        <v>743.0230756686125</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D19" t="n">
-        <v>577.1450828701352</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E19" t="n">
-        <v>407.3870791208724</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092381</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>997.5438780199985</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1685.067474329294</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
         <v>2118.080353351143</v>
@@ -5715,10 +5715,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041283</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1440.733140952813</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C20" t="n">
-        <v>1002.590668136236</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
-        <v>566.6808833106807</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>132.9061384689758</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>132.9061384689758</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>132.9061384689758</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867023</v>
@@ -5764,7 +5764,7 @@
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
         <v>1775.969506973259</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W20" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X20" t="n">
-        <v>1849.01926465316</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y20" t="n">
-        <v>1440.733140952813</v>
+        <v>1233.361929063012</v>
       </c>
     </row>
     <row r="21">
@@ -5810,43 +5810,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
         <v>192.6919004158277</v>
@@ -5916,16 +5916,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>839.4924998801305</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>970.0968922186598</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180194</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P22" t="n">
         <v>2105.896438675981</v>
@@ -5934,28 +5934,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1584.360173778323</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1584.360173778323</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1338.968419111735</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.548748425843</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>1260.031093301297</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>824.1213084757419</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>824.1213084757419</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895472</v>
+        <v>396.2538788849496</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435802</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228011</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447736</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W23" t="n">
-        <v>2191.18710732393</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.18710732393</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="Y23" t="n">
-        <v>1782.900983623584</v>
+        <v>1698.173566117874</v>
       </c>
     </row>
     <row r="24">
@@ -6062,16 +6062,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6123,58 +6123,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.0817647851411</v>
+        <v>843.5014354710333</v>
       </c>
       <c r="C25" t="n">
-        <v>443.520053268366</v>
+        <v>670.9397239542583</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6716093364612</v>
+        <v>670.9397239542583</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>501.1817202049955</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895472</v>
+        <v>324.4746661667517</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895472</v>
+        <v>159.7334857792701</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L25" t="n">
-        <v>744.9929992049549</v>
+        <v>733.4227107706873</v>
       </c>
       <c r="M25" t="n">
-        <v>1329.174074623269</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N25" t="n">
-        <v>1898.931789584803</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.320157362629</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
         <v>2118.080353351143</v>
@@ -6189,10 +6189,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041283</v>
+        <v>1035.320054190021</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.26120212753</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C26" t="n">
-        <v>1744.26120212753</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.351417301975</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E26" t="n">
-        <v>874.5766724602698</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
         <v>446.7092428694776</v>
@@ -6223,16 +6223,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2149.116656716497</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2149.116656716497</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2149.116656716497</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>1744.26120212753</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X26" t="n">
-        <v>1744.26120212753</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="Y26" t="n">
-        <v>1744.26120212753</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="27">
@@ -6284,19 +6284,19 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
         <v>47.20655154895473</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.291841223631</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C28" t="n">
         <v>919.7301297068562</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N28" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6414,22 +6414,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>2143.342086321601</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>2143.342086321601</v>
       </c>
       <c r="V28" t="n">
-        <v>1839.693721399886</v>
+        <v>1856.386578192031</v>
       </c>
       <c r="W28" t="n">
-        <v>1756.921885295098</v>
+        <v>1584.360173778323</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.53013062851</v>
+        <v>1338.968419111735</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.110459942618</v>
+        <v>1111.548748425843</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1526.868684372189</v>
+        <v>1035.877686363847</v>
       </c>
       <c r="C29" t="n">
-        <v>1088.726211555612</v>
+        <v>1035.877686363847</v>
       </c>
       <c r="D29" t="n">
-        <v>652.8164267300567</v>
+        <v>1035.877686363847</v>
       </c>
       <c r="E29" t="n">
-        <v>652.8164267300567</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8164267300567</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>253.3137354095339</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>1889.485634438362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1526.868684372189</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W29" t="n">
-        <v>1526.868684372189</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X29" t="n">
-        <v>1526.868684372189</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y29" t="n">
-        <v>1526.868684372189</v>
+        <v>1035.877686363847</v>
       </c>
     </row>
     <row r="30">
@@ -6521,31 +6521,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
         <v>551.5786779960906</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>561.2164974914551</v>
+        <v>903.0372729147116</v>
       </c>
       <c r="C31" t="n">
-        <v>388.6547859746801</v>
+        <v>730.4755613979365</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6547859746801</v>
+        <v>730.4755613979365</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6547859746801</v>
+        <v>560.7175576486738</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092376</v>
+        <v>733.4227107706877</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827552</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789086</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.320157362629</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2305.46231015405</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2063.215086057457</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>1784.8284541062</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.87294597663</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W31" t="n">
-        <v>1225.846541562922</v>
+        <v>1567.667316986178</v>
       </c>
       <c r="X31" t="n">
-        <v>980.4547868963341</v>
+        <v>1322.275562319591</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.0351162104423</v>
+        <v>1094.855891633699</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>446.7092428694776</v>
+        <v>661.2775954676225</v>
       </c>
       <c r="C32" t="n">
-        <v>446.7092428694776</v>
+        <v>661.2775954676225</v>
       </c>
       <c r="D32" t="n">
-        <v>446.7092428694776</v>
+        <v>661.2775954676225</v>
       </c>
       <c r="E32" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W32" t="n">
-        <v>1081.54685999802</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X32" t="n">
-        <v>662.4043965773309</v>
+        <v>1495.863289652877</v>
       </c>
       <c r="Y32" t="n">
-        <v>446.7092428694776</v>
+        <v>1087.57716595253</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6785,7 +6785,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
         <v>803.387703298788</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.196554659879</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C34" t="n">
-        <v>856.6348431431041</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D34" t="n">
-        <v>690.7568503446269</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E34" t="n">
-        <v>520.9988465953642</v>
+        <v>273.7620495191033</v>
       </c>
       <c r="F34" t="n">
-        <v>344.2917925571204</v>
+        <v>97.0549954808595</v>
       </c>
       <c r="G34" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.355695376305</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180195</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1693.826598731346</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1693.826598731346</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
-        <v>1448.434844064758</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y34" t="n">
-        <v>1221.015173378866</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>716.4307943255671</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4307943255671</v>
+        <v>1265.092028726102</v>
       </c>
       <c r="D35" t="n">
-        <v>716.4307943255671</v>
+        <v>829.1822439005466</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>829.1822439005466</v>
       </c>
       <c r="F35" t="n">
         <v>716.4307943255671</v>
@@ -6931,19 +6931,19 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
         <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.54685999802</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X35" t="n">
-        <v>716.4307943255671</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="Y35" t="n">
-        <v>716.4307943255671</v>
+        <v>1703.234501542679</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043084</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>896.8524940391952</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C37" t="n">
-        <v>724.2907825224202</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D37" t="n">
-        <v>558.4127897239429</v>
+        <v>450.2037719866638</v>
       </c>
       <c r="E37" t="n">
-        <v>388.6547859746801</v>
+        <v>280.4457682374011</v>
       </c>
       <c r="F37" t="n">
-        <v>211.9477319364363</v>
+        <v>103.7387141991573</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
         <v>192.6919004158277</v>
@@ -7101,7 +7101,7 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>828.1746199579899</v>
       </c>
       <c r="M37" t="n">
         <v>1412.355695376305</v>
@@ -7119,28 +7119,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1833.50894252437</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.482538110662</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X37" t="n">
-        <v>1316.090783444074</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y37" t="n">
-        <v>1088.671112758182</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>701.7439652528263</v>
+        <v>1652.5043924837</v>
       </c>
       <c r="C38" t="n">
-        <v>263.6014924362497</v>
+        <v>1652.5043924837</v>
       </c>
       <c r="D38" t="n">
-        <v>47.20655154895474</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895474</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W38" t="n">
-        <v>1955.47212285877</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X38" t="n">
-        <v>1536.329659438081</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="Y38" t="n">
-        <v>1128.043535737734</v>
+        <v>1652.5043924837</v>
       </c>
     </row>
     <row r="39">
@@ -7232,25 +7232,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.291841223631</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M40" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N40" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1756.921885295098</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1756.921885295098</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.53013062851</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.110459942618</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.4307943255671</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K41" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X41" t="n">
-        <v>1081.54685999802</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y41" t="n">
-        <v>1081.54685999802</v>
+        <v>1911.575083962187</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.2907825224202</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C43" t="n">
-        <v>724.2907825224202</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D43" t="n">
-        <v>558.4127897239429</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>733.4227107706877</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M43" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1887.361501150537</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1660.947231007595</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1388.920826593887</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1143.529071927299</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.1094012414073</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1422.719694168253</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="C44" t="n">
-        <v>1422.719694168253</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D44" t="n">
-        <v>1150.205539167272</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228015</v>
@@ -7660,10 +7660,10 @@
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
         <v>2043.069798152528</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2162.576883587396</v>
       </c>
       <c r="V44" t="n">
-        <v>1849.01926465316</v>
+        <v>2162.576883587396</v>
       </c>
       <c r="W44" t="n">
-        <v>1849.01926465316</v>
+        <v>2162.576883587396</v>
       </c>
       <c r="X44" t="n">
-        <v>1849.01926465316</v>
+        <v>1743.434420166706</v>
       </c>
       <c r="Y44" t="n">
-        <v>1849.01926465316</v>
+        <v>1335.14829646636</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>756.6558446758912</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>584.0941331591162</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>584.0941331591162</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
         <v>584.0941331591162</v>
@@ -7803,28 +7803,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728194</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N46" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>1136.285270360843</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.44901925259023</v>
+        <v>32.63681545384261</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.35787900959568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>106.4970253946632</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>12.1977704636862</v>
+        <v>99.3376619819033</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912362</v>
+        <v>98.52803488912303</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340658</v>
+        <v>17.71219621584748</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>176.4173968858563</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.27619576520573</v>
       </c>
       <c r="L16" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>458.1582657371569</v>
@@ -9336,13 +9336,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>323.2928365343471</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>152.9002451589001</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580971</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>133.2132714773312</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371567</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>158.2045317475394</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M28" t="n">
-        <v>177.1920849464598</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042866</v>
+        <v>45.75904403825086</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,16 +10515,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>191.7550444507524</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10749,10 +10749,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>141.468043217344</v>
       </c>
       <c r="M37" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>192.4544649334014</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>45.75904403825086</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>192.4544649334018</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>192.4544649334018</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>324.5478889874877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179677</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>97.12402527515987</v>
       </c>
       <c r="U8" t="n">
-        <v>137.5158574008316</v>
+        <v>137.5158574008323</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>328.2829252776802</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006155</v>
+        <v>281.7229895006163</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440209</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23111,10 +23111,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>18.79977824654476</v>
+        <v>41.32117737065433</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656962</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>55.47593365518671</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.0424322161592</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167648</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>34.23485086104809</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>6.137010886110701</v>
       </c>
     </row>
     <row r="10">
@@ -23187,19 +23187,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>48.9765131693094</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7654023385416</v>
+        <v>72.43792250890637</v>
       </c>
       <c r="H10" t="n">
-        <v>136.9920546719889</v>
+        <v>17.9081441295282</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742788</v>
+        <v>82.6621924374279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616403</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>35.60310718843898</v>
       </c>
       <c r="T10" t="n">
-        <v>137.8053513118217</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577339</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058124</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>150.2222298271099</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>102.9226242288703</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448417</v>
       </c>
     </row>
     <row r="12">
@@ -23424,16 +23424,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>93.63231361822162</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.74629500667374</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>110.3230468421005</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>53.48613377075435</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.530837546250556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>139.6775016064189</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>44.05731549153705</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>202.2894914660836</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>106.6075596444467</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>77.01146353687079</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>182.1817448907078</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>75.05377899077622</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>174.2880140137339</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>49.95081034468262</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>233.3578346205094</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>114.8692533779068</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>19.61895512646502</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24448,13 +24448,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>40.61643357900255</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>190.6650602925688</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>25.0091156407529</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>187.362022625831</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>269.7489936287461</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>62.97822391955534</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>23.14280975533791</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>88.66565849005872</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24925,13 +24925,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>245.095419208691</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>190.6650602925683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>113.743809091021</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>282.6597747172258</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,16 +25156,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>311.9648202156546</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>53.48613377075435</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>107.1269275599062</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>145.3425294405764</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>217.3196954988779</v>
+        <v>357.86357748892</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>83.88260398784352</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>61.03815536706665</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>60.57166976433018</v>
+        <v>256.3958317637486</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>146.3469376859581</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>107.1269275599053</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>161.761673526329</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>100.7685037293145</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.1683390918416</v>
+        <v>146.3469376859581</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>91586.0796239825</v>
+        <v>91586.07962398193</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>403205.3267104625</v>
+        <v>403205.3267104624</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>403205.3267104623</v>
+        <v>403205.3267104625</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>403205.3267104623</v>
+        <v>403205.3267104625</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>403205.3267104623</v>
+        <v>403205.3267104625</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>403205.3267104623</v>
+        <v>403205.3267104625</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>403205.3267104624</v>
+        <v>403205.3267104625</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>403205.3267104623</v>
+        <v>403205.3267104626</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>403205.3267104625</v>
+        <v>403205.3267104623</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>403205.3267104625</v>
+        <v>403205.3267104623</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>403205.3267104625</v>
+        <v>403205.3267104623</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>403205.3267104625</v>
+        <v>403205.3267104623</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>403205.3267104625</v>
+        <v>403205.3267104623</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>36428.59575072114</v>
+        <v>36428.59575072091</v>
       </c>
       <c r="E2" t="n">
+        <v>165162.4498658581</v>
+      </c>
+      <c r="F2" t="n">
         <v>165162.4498658582</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>165162.4498658581</v>
-      </c>
-      <c r="G2" t="n">
-        <v>165162.449865858</v>
       </c>
       <c r="H2" t="n">
         <v>165162.4498658581</v>
@@ -26337,7 +26337,7 @@
         <v>165162.4498658581</v>
       </c>
       <c r="J2" t="n">
-        <v>165162.4498658581</v>
+        <v>165162.4498658582</v>
       </c>
       <c r="K2" t="n">
         <v>165162.4498658582</v>
@@ -26346,16 +26346,16 @@
         <v>165162.4498658581</v>
       </c>
       <c r="M2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="N2" t="n">
         <v>165162.4498658581</v>
       </c>
       <c r="O2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
       <c r="P2" t="n">
-        <v>165162.4498658582</v>
+        <v>165162.4498658581</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730584</v>
+        <v>117708.4675730577</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180438</v>
+        <v>439858.2450180444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310217</v>
+        <v>30139.06600310187</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597479</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6689.286665756881</v>
+        <v>6689.286665756841</v>
       </c>
       <c r="E4" t="n">
         <v>18294.04639895361</v>
       </c>
       <c r="F4" t="n">
-        <v>18294.04639895363</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="G4" t="n">
         <v>18294.04639895361</v>
       </c>
       <c r="H4" t="n">
+        <v>18294.04639895362</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18294.04639895362</v>
+      </c>
+      <c r="J4" t="n">
         <v>18294.04639895361</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>18294.04639895362</v>
+      </c>
+      <c r="L4" t="n">
         <v>18294.04639895361</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18294.04639895362</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18294.04639895361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18294.04639895363</v>
       </c>
       <c r="M4" t="n">
         <v>18294.04639895361</v>
       </c>
       <c r="N4" t="n">
-        <v>18294.04639895363</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="O4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="P4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.5622723924</v>
+        <v>42922.56227239235</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
@@ -26496,22 +26496,22 @@
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="L5" t="n">
         <v>46051.08120963781</v>
-      </c>
-      <c r="L5" t="n">
-        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-130891.7207604865</v>
+        <v>-132058.6195566371</v>
       </c>
       <c r="E6" t="n">
-        <v>-339040.922760777</v>
+        <v>-339594.8032039996</v>
       </c>
       <c r="F6" t="n">
-        <v>100817.3222572666</v>
+        <v>100263.4418140448</v>
       </c>
       <c r="G6" t="n">
-        <v>100817.3222572666</v>
+        <v>100263.4418140447</v>
       </c>
       <c r="H6" t="n">
-        <v>100817.3222572667</v>
+        <v>100263.4418140447</v>
       </c>
       <c r="I6" t="n">
-        <v>100817.3222572667</v>
+        <v>100263.4418140447</v>
       </c>
       <c r="J6" t="n">
-        <v>100817.3222572666</v>
+        <v>100263.4418140448</v>
       </c>
       <c r="K6" t="n">
-        <v>100817.3222572667</v>
+        <v>100263.4418140448</v>
       </c>
       <c r="L6" t="n">
-        <v>70678.25625416449</v>
+        <v>70124.37581094286</v>
       </c>
       <c r="M6" t="n">
-        <v>-16557.25930248113</v>
+        <v>-17111.13974570331</v>
       </c>
       <c r="N6" t="n">
-        <v>100817.3222572667</v>
+        <v>100263.4418140447</v>
       </c>
       <c r="O6" t="n">
-        <v>100817.3222572668</v>
+        <v>100263.4418140448</v>
       </c>
       <c r="P6" t="n">
-        <v>100817.3222572668</v>
+        <v>100263.4418140448</v>
       </c>
     </row>
   </sheetData>
@@ -26743,16 +26743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480516</v>
+        <v>94.2504821748046</v>
       </c>
       <c r="E3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="F3" t="n">
         <v>466.7019280932212</v>
       </c>
-      <c r="F3" t="n">
-        <v>466.701928093221</v>
-      </c>
       <c r="G3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932211</v>
@@ -26767,19 +26767,19 @@
         <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="L4" t="n">
         <v>590.081894361934</v>
       </c>
-      <c r="L4" t="n">
-        <v>590.0818943619342</v>
-      </c>
       <c r="M4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="N4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="O4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="N4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="O4" t="n">
-        <v>590.0818943619342</v>
-      </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480516</v>
+        <v>94.2504821748046</v>
       </c>
       <c r="E3" t="n">
-        <v>372.451445918416</v>
+        <v>372.4514459184165</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194728</v>
+        <v>470.9979838194734</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194727</v>
+        <v>470.9979838194734</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194728</v>
+        <v>470.9979838194734</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529852</v>
+        <v>0.378896410752983</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624011</v>
+        <v>3.880372866623989</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555448</v>
+        <v>14.60740387555439</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214621</v>
+        <v>32.15835924214603</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932009</v>
+        <v>48.19704430931981</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990178</v>
+        <v>59.79269533990142</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463017</v>
+        <v>66.53089438462978</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116821</v>
+        <v>67.6074338116817</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725709</v>
+        <v>63.83978262725672</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679276</v>
+        <v>54.48577748679244</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670147</v>
+        <v>40.91654977670122</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196223</v>
+        <v>23.80085166196209</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033661</v>
+        <v>8.634101960033609</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071194</v>
+        <v>1.658619038071184</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023882</v>
+        <v>0.03031171286023864</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250526</v>
+        <v>0.2027274522250514</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857745</v>
+        <v>1.957920393857734</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888874</v>
+        <v>6.979870613888832</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578064</v>
+        <v>19.15329845780629</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688492</v>
+        <v>32.73603775688473</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211066</v>
+        <v>44.0176426421104</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852688</v>
+        <v>51.3665127852685</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286577</v>
+        <v>52.72603153286546</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619486</v>
+        <v>48.23401798619458</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200629</v>
+        <v>38.71205182006267</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542953</v>
+        <v>25.87798144542937</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779757</v>
+        <v>12.5868851477975</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531128</v>
+        <v>3.765573509531106</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457162</v>
+        <v>0.8171338973457113</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322715</v>
+        <v>0.01333733238322707</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889929</v>
+        <v>0.1699598858889919</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51109789454032</v>
+        <v>1.511097894540311</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643533</v>
+        <v>5.111157295643503</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323518</v>
+        <v>12.01616393235173</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055753</v>
+        <v>19.74624856055742</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207809</v>
+        <v>25.26839976207794</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803549</v>
+        <v>26.64198465803533</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063108</v>
+        <v>26.00849781063093</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254733</v>
+        <v>24.02305732547315</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333782</v>
+        <v>20.5558756533377</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839558</v>
+        <v>14.23182280839549</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517806</v>
+        <v>7.642014505517761</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96193728408363</v>
+        <v>2.961937284083612</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075149</v>
+        <v>0.7261922397075106</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308714</v>
+        <v>0.009270539230308659</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699034</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33508,28 +33508,28 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062832</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691673</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642308</v>
+        <v>14.194782396423</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214621</v>
+        <v>32.15835924214602</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932009</v>
+        <v>48.19704430931981</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990177</v>
+        <v>59.79269533990143</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463019</v>
+        <v>66.53089438462976</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168209</v>
+        <v>67.60743381168169</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725708</v>
+        <v>63.83978262725674</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679276</v>
+        <v>54.48577748679247</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670146</v>
+        <v>40.91654977670123</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196221</v>
+        <v>23.80085166196204</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020967</v>
+        <v>6.979870613888831</v>
       </c>
       <c r="J9" t="n">
-        <v>65.60231771039663</v>
+        <v>51.79011391164889</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688491</v>
+        <v>32.73603775688473</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211064</v>
+        <v>44.0176426421104</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526881</v>
+        <v>51.3665127852685</v>
       </c>
       <c r="N9" t="n">
-        <v>119.0839105424614</v>
+        <v>52.72603153286545</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619489</v>
+        <v>48.23401798619457</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006292</v>
+        <v>38.7120518200627</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542955</v>
+        <v>25.87798144542938</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779755</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143247</v>
+        <v>99.4703913714324</v>
       </c>
       <c r="K10" t="n">
-        <v>31.94401902424372</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="L10" t="n">
-        <v>25.2683997620781</v>
+        <v>25.26839976207793</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803548</v>
+        <v>26.64198465803531</v>
       </c>
       <c r="N10" t="n">
-        <v>26.0084978106311</v>
+        <v>26.00849781063096</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254733</v>
+        <v>24.02305732547313</v>
       </c>
       <c r="P10" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424614</v>
+        <v>31.944019024243</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>274.1952762470262</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>266.5900650540088</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>167.0540751263756</v>
       </c>
       <c r="L16" t="n">
-        <v>281.8524450409516</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785894</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
@@ -35971,19 +35971,19 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409516</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>590.081894361934</v>
@@ -36056,16 +36056,16 @@
         <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>425.0797619663506</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916783</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36284,25 +36284,25 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>278.0222669955647</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>198.8376634256981</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184533</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>258.3352933139957</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619339</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
-        <v>277.1599674523493</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.076641276667</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M28" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916785</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409511</v>
+        <v>170.8810658749154</v>
       </c>
       <c r="M31" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -37074,19 +37074,19 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37156,7 +37156,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712374</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>320.5418240506408</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
         <v>240.36368292423</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062832</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766673</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>266.5900650540085</v>
       </c>
       <c r="M37" t="n">
-        <v>309.1157135712365</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998884</v>
@@ -37484,7 +37484,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
@@ -37554,13 +37554,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>324.3780935581786</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,13 +37794,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691673</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37879,10 +37879,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>170.8810658749154</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>324.378093558179</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>324.378093558179</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
